--- a/MyDocs/mine.xlsx
+++ b/MyDocs/mine.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhan.reddy\Desktop\MyDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocs\MyDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" tabRatio="666" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" tabRatio="666" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Dad &amp; Bro" sheetId="7" r:id="rId4"/>
     <sheet name="Salary" sheetId="9" r:id="rId5"/>
     <sheet name="HomeLoan" sheetId="4" r:id="rId6"/>
-    <sheet name="Personal Loan" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId7"/>
+    <sheet name="Personal Loan" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="202">
   <si>
     <t>Aug</t>
   </si>
@@ -622,6 +623,21 @@
   </si>
   <si>
     <t>Keep</t>
+  </si>
+  <si>
+    <t>Current tax - 8619</t>
+  </si>
+  <si>
+    <t>Remove donation 50k - 11193</t>
+  </si>
+  <si>
+    <t>Remove loan 2L - 47349</t>
+  </si>
+  <si>
+    <t>After bonus - 60121</t>
+  </si>
+  <si>
+    <t>After bonus included loan 2L - 18921</t>
   </si>
 </sst>
 </file>
@@ -759,9 +775,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -773,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3218,10 +3234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3496,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3542,7 +3558,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>2990</v>
       </c>
       <c r="G2" s="3"/>
@@ -3555,7 +3571,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3566,7 +3582,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>27059</v>
       </c>
       <c r="G4" s="3"/>
@@ -3579,7 +3595,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>27059</v>
       </c>
       <c r="G5" s="3"/>
@@ -3592,7 +3608,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>27059</v>
       </c>
       <c r="G6" s="3"/>
@@ -3605,7 +3621,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>27059</v>
       </c>
       <c r="G7" s="3"/>
@@ -3618,7 +3634,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>27059</v>
       </c>
       <c r="G8" s="8"/>
@@ -3639,7 +3655,7 @@
       <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>27059</v>
       </c>
       <c r="G9" s="10">
@@ -3662,7 +3678,7 @@
       <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>27059</v>
       </c>
       <c r="G10" s="10">
@@ -3907,6 +3923,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -4213,7 +4272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
